--- a/data/Daftar Industri Pemilik Sertifikat CPKB - Direktorat Standardisasi Obat Tradisional, Suplemen Kesehatan dan Kosmetik v2.xlsx
+++ b/data/Daftar Industri Pemilik Sertifikat CPKB - Direktorat Standardisasi Obat Tradisional, Suplemen Kesehatan dan Kosmetik v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\pdf-generator\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\www\tesis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE981FA0-900E-4EAF-A450-F110D0412797}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F445A97-5227-48A7-B7C1-373EAD6BDA30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,14 +25,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$601</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -14087,7 +14079,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
@@ -17499,8 +17491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F121"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
